--- a/biology/Médecine/John_F._Murray/John_F._Murray.xlsx
+++ b/biology/Médecine/John_F._Murray/John_F._Murray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Frederic Murray, né le 8 juin 1927 à Mineola et mort le 24 mars 2020 à Paris[1], est un pneumologue américain surtout connu pour ses travaux sur le syndrome de détresse respiratoire aiguë (SDRA), qui est responsable de sa mort après qu'il a été atteint de COVID-19 pendant la pandémie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Frederic Murray, né le 8 juin 1927 à Mineola et mort le 24 mars 2020 à Paris, est un pneumologue américain surtout connu pour ses travaux sur le syndrome de détresse respiratoire aiguë (SDRA), qui est responsable de sa mort après qu'il a été atteint de COVID-19 pendant la pandémie.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Murray étudie à l'Université de Stanford puis à la Stanford University Medical School[2]. Il est professeur émérite de médecine à l'Université de Californie à San Francisco (UCSF School of Medicine)[3] et chef des soins pulmonaires et des soins intensifs au San Francisco General Hospital de 1966 à 1989. Après avoir pris sa retraite de ses fonctions à plein temps, il vit à temps partiel en France.
-Il meurt d'un syndrome de détresse respiratoire aiguë le 24 mars 2020 à Paris après avoir été infecté par le 2019-nCoV[2],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Murray étudie à l'Université de Stanford puis à la Stanford University Medical School. Il est professeur émérite de médecine à l'Université de Californie à San Francisco (UCSF School of Medicine) et chef des soins pulmonaires et des soins intensifs au San Francisco General Hospital de 1966 à 1989. Après avoir pris sa retraite de ses fonctions à plein temps, il vit à temps partiel en France.
+Il meurt d'un syndrome de détresse respiratoire aiguë le 24 mars 2020 à Paris après avoir été infecté par le 2019-nCoV.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Murray and Nadel's Textbook of Respiratory Medicine[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Murray and Nadel's Textbook of Respiratory Medicine.</t>
         </is>
       </c>
     </row>
